--- a/public/Modele-article.xlsx
+++ b/public/Modele-article.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATHILDE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Angelo\Gooomart\Stock\control\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21631EC7-201F-478A-8D5C-E0968E654925}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8168CE-D15B-4327-89D8-E9D83C5D08BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{25822D9C-4C8D-447C-8A2F-E20AB1B39B0B}"/>
   </bookViews>
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,13 +81,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -98,15 +106,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1970DC18-C83C-4793-8285-395EA2700C70}" name="Table1" displayName="Table1" ref="A1:F500" totalsRowShown="0">
-  <autoFilter ref="A1:F500" xr:uid="{00EF6709-455C-41FD-BD82-1652E72D2063}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1970DC18-C83C-4793-8285-395EA2700C70}" name="Table1" displayName="Table1" ref="A1:F3000" totalsRowShown="0" headerRowCellStyle="40% - Accent3" dataCellStyle="40% - Accent3">
+  <autoFilter ref="A1:F3000" xr:uid="{00EF6709-455C-41FD-BD82-1652E72D2063}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{74B02008-5417-4676-AC92-72C71BB71989}" name="ARTICLE"/>
     <tableColumn id="2" xr3:uid="{45B25ED2-E638-4499-B1C1-7A2E7AC4A038}" name="QTE"/>
     <tableColumn id="3" xr3:uid="{065F7206-8FD0-41E1-9B1C-7703DB0AB515}" name="PRIX"/>
     <tableColumn id="4" xr3:uid="{54FD3255-3294-4ED6-B500-FAB590748927}" name="REDUCTION (0 -90 %)"/>
     <tableColumn id="5" xr3:uid="{C62F76C4-6B98-4765-8276-8E2EFD746405}" name="DEVISE"/>
-    <tableColumn id="6" xr3:uid="{D3F89532-DB64-4D6F-BFF7-97DC6B962AE0}" name="DATE EXPIRATION"/>
+    <tableColumn id="6" xr3:uid="{D3F89532-DB64-4D6F-BFF7-97DC6B962AE0}" name="DATE EXPIRATION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -412,7 +420,8 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +431,8 @@
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -441,29 +451,34 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{81A5769F-50D7-4164-83E0-9337AE4371FB}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Devise non valide" prompt="CDF ou USD" sqref="E1:E1048576" xr:uid="{81A5769F-50D7-4164-83E0-9337AE4371FB}">
       <formula1>"CDF,USD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{27F47750-651E-40E3-BC3D-A9834C5BAB64}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Prix minimum 1" prompt="Prix minimum 1" sqref="C1:C1048576" xr:uid="{27F47750-651E-40E3-BC3D-A9834C5BAB64}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{D08079F1-6279-40CF-BA62-EC9C60FBB4D3}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Quantité minimum 1" prompt="Quantité minimum 1" sqref="B1:B1048576" xr:uid="{D08079F1-6279-40CF-BA62-EC9C60FBB4D3}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{D1E461BE-BC29-4CD7-90B2-A49C0B11E48F}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Doit etre entre 0 et 90" prompt="Entre 0 et 90 % du prix de l'article" sqref="D1:D1048576" xr:uid="{D1E461BE-BC29-4CD7-90B2-A49C0B11E48F}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Le format doit etre AAAA/MM/DD _x000a__x000a_date minimale 2023/01/01_x000a_date maximale 2030/01/01" prompt="Laissez vide ou entrez une date au format AAAA/MM/JJ" sqref="F1:F1048576" xr:uid="{72D81A26-F7C5-4509-A529-92E8BD44E9CB}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{C389CB87-48A6-4375-ACAD-9C0823F4615C}">
+      <formula1>"YYYY/MM/DD"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>